--- a/BBCM/EMF.xlsx
+++ b/BBCM/EMF.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loube\Desktop\BBCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loube\Documents\GitHub\Data_Analysis\BBCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC93AEE-EEB0-4D1D-9ED3-ECAFFD63F37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F849C8D7-FB1C-4CEC-AFA4-60BD4488C335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{73ADC48C-3106-4447-BF83-C5CA4F5F60D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{73ADC48C-3106-4447-BF83-C5CA4F5F60D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$103</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
   <si>
     <t>User_id</t>
   </si>
@@ -206,82 +213,61 @@
     <t>Florida, FL</t>
   </si>
   <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
     <t>Standard Error</t>
   </si>
   <si>
-    <t>Observations</t>
+    <t>Total contribution of 1st time donors. Contribution post donation. Contriuters pre-campaign and post campaign</t>
   </si>
   <si>
-    <t>ANOVA</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Regression</t>
+    <t>Median</t>
   </si>
   <si>
-    <t>Residual</t>
+    <t>Mode</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Standard Deviation</t>
   </si>
   <si>
-    <t>Intercept</t>
+    <t>Sample Variance</t>
   </si>
   <si>
-    <t>df</t>
+    <t>Kurtosis</t>
   </si>
   <si>
-    <t>SS</t>
+    <t>Skewness</t>
   </si>
   <si>
-    <t>MS</t>
+    <t>Range</t>
   </si>
   <si>
-    <t>F</t>
+    <t>Minimum</t>
   </si>
   <si>
-    <t>Significance F</t>
+    <t>Maximum</t>
   </si>
   <si>
-    <t>Coefficients</t>
+    <t>Sum</t>
   </si>
   <si>
-    <t>t Stat</t>
+    <t>Count</t>
   </si>
   <si>
-    <t>P-value</t>
+    <t>Row Labels</t>
   </si>
   <si>
-    <t>Lower 95%</t>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t>Upper 95%</t>
+    <t>Sum of Prior donation</t>
   </si>
   <si>
-    <t>Lower 95.0%</t>
+    <t>Sum of Post-campaign donation</t>
   </si>
   <si>
-    <t>Upper 95.0%</t>
-  </si>
-  <si>
-    <t>X Variable 1</t>
-  </si>
-  <si>
-    <t>Total contribution of 1st time donors. Contribution post donation. Contriuters pre-campaign and post campaign</t>
+    <t>Count of User_id</t>
   </si>
 </sst>
 </file>
@@ -320,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -331,18 +317,118 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -353,21 +439,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,6 +494,3041 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Post-Campaign Donations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prior donation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BA2-437B-A3BE-DEC08942B9CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post-campaign donation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BA2-437B-A3BE-DEC08942B9CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2041513616"/>
+        <c:axId val="1973295856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2041513616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1973295856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1973295856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041513616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130174</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25B08A4-7CD3-4CE5-9A47-F801DCB75762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Loubens Louis" refreshedDate="43994.050235185183" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="100" xr:uid="{F86F083B-F8A9-40B3-9F7C-D3F8F07D4A57}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J101" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="User_id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="55"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="State" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Profession" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Law Enforcement"/>
+        <s v="Armed forces"/>
+        <s v="Science and technology"/>
+        <s v="Business and marketing"/>
+        <s v="Arts and entertainment"/>
+        <s v="Healthcare and medicine"/>
+        <s v="Education"/>
+        <s v="Industrial and manufacturing"/>
+        <s v="Retail"/>
+        <s v="Hospitality"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Prior donation" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="100" count="18">
+        <n v="0"/>
+        <n v="100"/>
+        <n v="85"/>
+        <n v="25"/>
+        <n v="50"/>
+        <n v="60"/>
+        <n v="65"/>
+        <n v="70"/>
+        <n v="40"/>
+        <n v="20"/>
+        <n v="75"/>
+        <n v="30"/>
+        <n v="35"/>
+        <n v="55"/>
+        <n v="15"/>
+        <n v="45"/>
+        <n v="10"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Post-campaign donation" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="250" count="31">
+        <n v="250"/>
+        <n v="235"/>
+        <n v="225"/>
+        <n v="200"/>
+        <n v="175"/>
+        <n v="150"/>
+        <n v="145"/>
+        <n v="140"/>
+        <n v="135"/>
+        <n v="125"/>
+        <n v="120"/>
+        <n v="110"/>
+        <n v="105"/>
+        <n v="100"/>
+        <n v="95"/>
+        <n v="90"/>
+        <n v="85"/>
+        <n v="80"/>
+        <n v="75"/>
+        <n v="70"/>
+        <n v="65"/>
+        <n v="55"/>
+        <n v="50"/>
+        <n v="45"/>
+        <n v="40"/>
+        <n v="35"/>
+        <n v="30"/>
+        <n v="25"/>
+        <n v="20"/>
+        <n v="15"/>
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Retweets" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Commented" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Brand Mentions" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <n v="83"/>
+    <n v="23"/>
+    <n v="2"/>
+    <s v="Minnesota,MN"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="50"/>
+    <n v="3"/>
+    <s v="Maine,ME"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="26"/>
+    <n v="3"/>
+    <s v="Maine,ME"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="46"/>
+    <n v="1"/>
+    <s v="Virginia,VA"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="2"/>
+    <s v="Virginia,VA"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="45"/>
+    <n v="2"/>
+    <s v="Wyoming,WY"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="26"/>
+    <n v="2"/>
+    <s v="Florida, FL"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="35"/>
+    <n v="3"/>
+    <s v="Rhode Island,RI"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="48"/>
+    <n v="1"/>
+    <s v="Wisconsin,WI"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="31"/>
+    <n v="2"/>
+    <s v="Montana,MT"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="18"/>
+    <n v="2"/>
+    <s v="Utah,UT"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="33"/>
+    <n v="3"/>
+    <s v="California,CA"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="41"/>
+    <n v="2"/>
+    <s v="Maine,ME"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="30"/>
+    <n v="2"/>
+    <s v="Oregon,OR"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="25"/>
+    <n v="1"/>
+    <s v="California,CA"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="25"/>
+    <n v="2"/>
+    <s v="Ohio,OH"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="20"/>
+    <n v="1"/>
+    <s v="Washington, D.C."/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="28"/>
+    <n v="1"/>
+    <s v="New Hampshire,NH"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="41"/>
+    <n v="1"/>
+    <s v="Iowa,IA"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="26"/>
+    <n v="2"/>
+    <s v="Mississippi,MS"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="21"/>
+    <n v="2"/>
+    <s v="Kentucky,KY"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="43"/>
+    <n v="2"/>
+    <s v="Virginia,VA"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="32"/>
+    <n v="2"/>
+    <s v="Rhode Island,RI"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="49"/>
+    <n v="1"/>
+    <s v="Washington, D.C."/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="39"/>
+    <n v="1"/>
+    <s v="Kansas,KS"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="45"/>
+    <n v="1"/>
+    <s v="New Jersey,NJ"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="44"/>
+    <n v="1"/>
+    <s v="South Carolina,SC"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="30"/>
+    <n v="1"/>
+    <s v="Maine,ME"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="33"/>
+    <n v="1"/>
+    <s v="Virginia,VA"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="39"/>
+    <n v="2"/>
+    <s v="California,CA"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="32"/>
+    <n v="1"/>
+    <s v="South Dakota,SD"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="40"/>
+    <n v="1"/>
+    <s v="North Dakota,ND"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="26"/>
+    <n v="2"/>
+    <s v="Washington, D.C."/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="43"/>
+    <n v="1"/>
+    <s v="Maryland, MD"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="20"/>
+    <n v="1"/>
+    <s v="South Dakota,SD"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="47"/>
+    <n v="1"/>
+    <s v="Wyoming,WY"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="37"/>
+    <n v="1"/>
+    <s v="Rhode Island,RI"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="38"/>
+    <n v="1"/>
+    <s v="South Dakota,SD"/>
+    <x v="6"/>
+    <x v="9"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="30"/>
+    <n v="1"/>
+    <s v="Oklahoma,OK"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="46"/>
+    <n v="2"/>
+    <s v="California,CA"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="49"/>
+    <n v="2"/>
+    <s v="Colorado,CO"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="22"/>
+    <n v="3"/>
+    <s v="Ohio,OH"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="46"/>
+    <n v="2"/>
+    <s v="Washington,WA"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="22"/>
+    <n v="1"/>
+    <s v="Wyoming,WY"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="34"/>
+    <n v="2"/>
+    <s v="Oregon,OR"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="43"/>
+    <n v="2"/>
+    <s v="Maine,ME"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="37"/>
+    <n v="1"/>
+    <s v="North Dakota,ND"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="24"/>
+    <n v="1"/>
+    <s v="Wyoming,WY"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="46"/>
+    <n v="1"/>
+    <s v="South Carolina,SC"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="39"/>
+    <n v="1"/>
+    <s v="Washington,WA"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="42"/>
+    <n v="1"/>
+    <s v="South Carolina,SC"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="36"/>
+    <n v="2"/>
+    <s v="Kentucky,KY"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="40"/>
+    <n v="1"/>
+    <s v="Rhode Island,RI"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="35"/>
+    <n v="2"/>
+    <s v="Wisconsin,WI"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="47"/>
+    <n v="2"/>
+    <s v="New York,NY"/>
+    <x v="9"/>
+    <x v="11"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="27"/>
+    <n v="1"/>
+    <s v="Hawaii,HI"/>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="39"/>
+    <n v="3"/>
+    <s v="Arizona,AZ"/>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="52"/>
+    <n v="2"/>
+    <s v="Nebraska,NE"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="43"/>
+    <n v="2"/>
+    <s v="Washington,WA"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="30"/>
+    <n v="1"/>
+    <s v="Rhode Island,RI"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="18"/>
+    <n v="2"/>
+    <s v="Oklahoma,OK"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="28"/>
+    <n v="1"/>
+    <s v="South Carolina,SC"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="44"/>
+    <n v="1"/>
+    <s v="Ohio,OH"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="36"/>
+    <n v="2"/>
+    <s v="Oregon,OR"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="22"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="20"/>
+    <n v="2"/>
+    <s v="New Mexico,NM"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="2"/>
+    <s v="Alaska,AK"/>
+    <x v="6"/>
+    <x v="9"/>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="55"/>
+    <n v="2"/>
+    <s v="Missouri,MO"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="28"/>
+    <n v="2"/>
+    <s v="Utah,UT"/>
+    <x v="6"/>
+    <x v="12"/>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <n v="47"/>
+    <n v="2"/>
+    <s v="Florida, FL"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="52"/>
+    <n v="1"/>
+    <s v="North Dakota,ND"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="54"/>
+    <n v="1"/>
+    <s v="North Dakota,ND"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="51"/>
+    <n v="1"/>
+    <s v="Delaware,DE"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="31"/>
+    <n v="1"/>
+    <s v="Florida, FL"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="38"/>
+    <n v="2"/>
+    <s v="Arizona,AZ"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="31"/>
+    <n v="2"/>
+    <s v="Maryland, MD"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="52"/>
+    <n v="2"/>
+    <s v="Maryland, MD"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="44"/>
+    <n v="1"/>
+    <s v="New Jersey,NJ"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="29"/>
+    <n v="2"/>
+    <s v="North Dakota,ND"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="31"/>
+    <n v="2"/>
+    <s v="New Jersey,NJ"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="31"/>
+    <n v="1"/>
+    <s v="New York,NY"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="32"/>
+    <n v="1"/>
+    <s v="Minnesota,MN"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <n v="22"/>
+    <n v="2"/>
+    <s v="Oklahoma,OK"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="37"/>
+    <n v="1"/>
+    <s v="Maine,ME"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="26"/>
+    <n v="3"/>
+    <s v="New Jersey,NJ"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="36"/>
+    <n v="1"/>
+    <s v="Nevada,NV"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="46"/>
+    <n v="1"/>
+    <s v="Kentucky,KY"/>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="26"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="21"/>
+    <n v="1"/>
+    <s v="Michigan,MI"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="27"/>
+    <n v="1"/>
+    <s v="Maryland, MD"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="21"/>
+    <n v="2"/>
+    <s v="South Carolina,SC"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="27"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="22"/>
+    <n v="1"/>
+    <s v="Rhode Island,RI"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="42"/>
+    <n v="2"/>
+    <s v="South Carolina,SC"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="28"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="36"/>
+    <n v="1"/>
+    <s v="Rhode Island,RI"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="52"/>
+    <n v="2"/>
+    <s v="Wyoming,WY"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="36"/>
+    <n v="2"/>
+    <s v="Kentucky,KY"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="36"/>
+    <n v="2"/>
+    <s v="Mississippi,MS"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="31"/>
+    <n v="1"/>
+    <s v="Oregon,OR"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="46"/>
+    <n v="1"/>
+    <s v="Idaho,ID"/>
+    <x v="3"/>
+    <x v="16"/>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="48"/>
+    <n v="1"/>
+    <s v="Wisconsin,WI"/>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="33"/>
+    <n v="1"/>
+    <s v="Montana,MT"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="37"/>
+    <n v="2"/>
+    <s v="New Mexico,NM"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="30"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FC5B53C-C346-43C6-8744-51206639D41F}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0">
+      <items count="19">
+        <item x="0"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="32">
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Prior donation" fld="5" baseField="4" baseItem="0"/>
+    <dataField name="Sum of Post-campaign donation" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Count of User_id" fld="0" subtotal="count" baseField="4" baseItem="9"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,11 +3827,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AAE551-02E6-4CF1-B089-FBF77DD59C2F}">
+  <dimension ref="A3:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="32" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="59" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="86" max="88" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21">
+        <v>165</v>
+      </c>
+      <c r="C4" s="21">
+        <v>570</v>
+      </c>
+      <c r="D4" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="21">
+        <v>385</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1095</v>
+      </c>
+      <c r="D5" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="21">
+        <v>395</v>
+      </c>
+      <c r="C6" s="21">
+        <v>810</v>
+      </c>
+      <c r="D6" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21">
+        <v>135</v>
+      </c>
+      <c r="C7" s="21">
+        <v>570</v>
+      </c>
+      <c r="D7" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="21">
+        <v>230</v>
+      </c>
+      <c r="C8" s="21">
+        <v>610</v>
+      </c>
+      <c r="D8" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="21">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21">
+        <v>100</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="21">
+        <v>120</v>
+      </c>
+      <c r="C10" s="21">
+        <v>570</v>
+      </c>
+      <c r="D10" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="21">
+        <v>220</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1110</v>
+      </c>
+      <c r="D11" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="21">
+        <v>140</v>
+      </c>
+      <c r="C12" s="21">
+        <v>480</v>
+      </c>
+      <c r="D12" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21">
+        <v>675</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2010</v>
+      </c>
+      <c r="D13" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2505</v>
+      </c>
+      <c r="C14" s="21">
+        <v>7925</v>
+      </c>
+      <c r="D14" s="21">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDDB8FB-2558-4042-9E5D-59EFDBD09889}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,10 +4082,10 @@
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -742,11 +4123,22 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -777,6 +4169,16 @@
       <c r="J2" s="1">
         <v>4</v>
       </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -809,10 +4211,24 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="6"/>
+      <c r="M3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="15">
+        <v>25.05</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="12">
+        <v>79.25</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -845,12 +4261,24 @@
       <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="3">
-        <v>6.9875760570156806E-2</v>
-      </c>
+      <c r="M4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="15">
+        <v>2.9185015873135165</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="12">
+        <v>5.4255172448106155</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -883,12 +4311,25 @@
       <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="K5" s="17"/>
+      <c r="M5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="3">
-        <v>4.8826219152578801E-3</v>
-      </c>
+      <c r="N5" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="12">
+        <v>67.5</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -921,16 +4362,24 @@
       <c r="J6" s="1">
         <v>4</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="3">
-        <v>-5.271637044790509E-3</v>
-      </c>
-      <c r="R6">
-        <f xml:space="preserve"> 75.996 + 0.13*( 100 )</f>
-        <v>88.995999999999995</v>
-      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="12">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -963,14 +4412,26 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="M7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="3">
-        <v>54.397991261751578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N7" s="15">
+        <v>29.185015873135164</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="12">
+        <v>54.255172448106151</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1001,12 +4462,24 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="4">
-        <v>100</v>
-      </c>
+      <c r="N8" s="15">
+        <v>851.7651515151515</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="12">
+        <v>2943.6237373737372</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -1039,8 +4512,26 @@
       <c r="J9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.17096217793019441</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1.0651910106972298</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1071,9 +4562,24 @@
       <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>64</v>
-      </c>
+      <c r="M10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1.0810297659991885</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1.1638524986331629</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -1106,22 +4612,24 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="M11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="15">
+        <v>100</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="12">
+        <v>240</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1154,24 +4662,24 @@
       <c r="J12" s="1">
         <v>5</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1422.8875752670574</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1422.8875752670574</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0.4808447307152991</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0.48968019652542361</v>
-      </c>
+      <c r="M12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -1204,22 +4712,26 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="3">
-        <v>98</v>
-      </c>
-      <c r="P13" s="3">
-        <v>289995.86242473294</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>2959.1414533136012</v>
-      </c>
+      <c r="M13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="15">
+        <v>100</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="12">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1250,20 +4762,26 @@
       <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="4">
-        <v>99</v>
-      </c>
-      <c r="P14" s="4">
-        <v>291418.75</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="15">
+        <v>2505</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="12">
+        <v>7925</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1294,6 +4812,24 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
+      <c r="M15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="16">
+        <v>100</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -1326,31 +4862,15 @@
       <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
     </row>
     <row r="17" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -1383,35 +4903,19 @@
       <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="3">
-        <v>75.996015404729917</v>
-      </c>
-      <c r="P17" s="3">
-        <v>7.1841395585604158</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>10.578304442064358</v>
-      </c>
-      <c r="R17" s="3">
-        <v>6.7530433138113502E-18</v>
-      </c>
-      <c r="S17" s="3">
-        <v>61.739324262119865</v>
-      </c>
-      <c r="T17" s="3">
-        <v>90.252706547339969</v>
-      </c>
-      <c r="U17" s="3">
-        <v>61.739324262119865</v>
-      </c>
-      <c r="V17" s="3">
-        <v>90.252706547339969</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1442,33 +4946,17 @@
       <c r="J18" s="1">
         <v>4</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.12989958464152035</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0.18732913673871343</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0.69342968692961104</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0.48968019652542405</v>
-      </c>
-      <c r="S18" s="4">
-        <v>-0.24184899049762504</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0.50164815978066568</v>
-      </c>
-      <c r="U18" s="4">
-        <v>-0.24184899049762504</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0.50164815978066568</v>
-      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -1501,6 +4989,12 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -1533,6 +5027,12 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -1565,6 +5065,12 @@
       <c r="J21" s="1">
         <v>3</v>
       </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -1597,6 +5103,12 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -1629,6 +5141,12 @@
       <c r="J23" s="1">
         <v>4</v>
       </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -1661,6 +5179,12 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -1693,6 +5217,12 @@
       <c r="J25" s="1">
         <v>5</v>
       </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -1725,6 +5255,12 @@
       <c r="J26" s="1">
         <v>3</v>
       </c>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -2301,11 +5837,11 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+      <c r="L44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -2338,9 +5874,9 @@
       <c r="J45" s="1">
         <v>2</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -2373,9 +5909,9 @@
       <c r="J46" s="1">
         <v>5</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -2408,9 +5944,9 @@
       <c r="J47" s="1">
         <v>5</v>
       </c>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -2443,9 +5979,9 @@
       <c r="J48" s="1">
         <v>1</v>
       </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
@@ -2478,9 +6014,9 @@
       <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -2962,7 +6498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2994,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3026,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3057,8 +6593,12 @@
       <c r="J67" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L67">
+        <f>100*0.4</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3090,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3122,7 +6662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3154,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3186,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3218,7 +6758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3250,7 +6790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3282,7 +6822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3314,7 +6854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3346,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3378,7 +6918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3410,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3442,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4147,9 +7687,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <autoFilter ref="A1:A103" xr:uid="{4BF033B9-E00F-4575-A1F7-7D009F81DE8B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J103">
+      <sortCondition ref="A1:A103"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
     <mergeCell ref="L44:N49"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>